--- a/ESG_G.xlsx
+++ b/ESG_G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed9aa1d7d8492529/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED9E68D-D2FD-4F26-B1E2-E7302BC8C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8ED9E68D-D2FD-4F26-B1E2-E7302BC8C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E7B1C1-586C-4148-8E3E-2CF7CA5EA6E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{706CB486-A523-426E-ABE3-5B1BE14612B4}"/>
+    <workbookView xWindow="6420" yWindow="324" windowWidth="11784" windowHeight="11796" xr2:uid="{706CB486-A523-426E-ABE3-5B1BE14612B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4455CC-57AD-4933-83F6-CBAEA6874C9E}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,26 +813,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H1" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I1" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J1" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K1" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="1">
         <v>2015</v>
       </c>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -871,9 +869,6 @@
       <c r="L2">
         <v>6.78</v>
       </c>
-      <c r="M2">
-        <v>7.12</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -912,9 +907,6 @@
       <c r="L3">
         <v>6.44</v>
       </c>
-      <c r="M3">
-        <v>7.31</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -953,9 +945,6 @@
       <c r="L4">
         <v>4.43</v>
       </c>
-      <c r="M4">
-        <v>4.66</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -994,9 +983,6 @@
       <c r="L5">
         <v>3.65</v>
       </c>
-      <c r="M5">
-        <v>3.64</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1035,9 +1021,6 @@
       <c r="L6">
         <v>5.71</v>
       </c>
-      <c r="M6">
-        <v>5.29</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1076,9 +1059,6 @@
       <c r="L7">
         <v>3.14</v>
       </c>
-      <c r="M7">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1117,9 +1097,6 @@
       <c r="L8">
         <v>6.32</v>
       </c>
-      <c r="M8">
-        <v>6.08</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1158,9 +1135,6 @@
       <c r="L9">
         <v>4.58</v>
       </c>
-      <c r="M9">
-        <v>3.65</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1199,9 +1173,6 @@
       <c r="L10">
         <v>5.05</v>
       </c>
-      <c r="M10">
-        <v>4.78</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1240,9 +1211,6 @@
       <c r="L11">
         <v>4.7699999999999996</v>
       </c>
-      <c r="M11">
-        <v>4.68</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1281,9 +1249,6 @@
       <c r="L12">
         <v>3.5</v>
       </c>
-      <c r="M12">
-        <v>3.58</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1322,9 +1287,6 @@
       <c r="L13">
         <v>5.55</v>
       </c>
-      <c r="M13">
-        <v>5.04</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1363,9 +1325,6 @@
       <c r="L14">
         <v>6.43</v>
       </c>
-      <c r="M14">
-        <v>5.58</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1404,9 +1363,6 @@
       <c r="L15">
         <v>5.23</v>
       </c>
-      <c r="M15">
-        <v>5.01</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1445,11 +1401,8 @@
       <c r="L16">
         <v>6.97</v>
       </c>
-      <c r="M16">
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1486,11 +1439,8 @@
       <c r="L17">
         <v>4.82</v>
       </c>
-      <c r="M17">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1527,11 +1477,8 @@
       <c r="L18">
         <v>4.8600000000000003</v>
       </c>
-      <c r="M18">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1568,11 +1515,8 @@
       <c r="L19">
         <v>3.81</v>
       </c>
-      <c r="M19">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1609,11 +1553,8 @@
       <c r="L20">
         <v>5.9</v>
       </c>
-      <c r="M20">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1651,7 +1592,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1688,11 +1629,8 @@
       <c r="L22">
         <v>3.8</v>
       </c>
-      <c r="M22">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1729,11 +1667,8 @@
       <c r="L23">
         <v>5.57</v>
       </c>
-      <c r="M23">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1770,11 +1705,8 @@
       <c r="L24">
         <v>4.51</v>
       </c>
-      <c r="M24">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1811,11 +1743,8 @@
       <c r="L25">
         <v>5.88</v>
       </c>
-      <c r="M25">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1852,11 +1781,8 @@
       <c r="L26">
         <v>4.78</v>
       </c>
-      <c r="M26">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1893,11 +1819,8 @@
       <c r="L27">
         <v>6.71</v>
       </c>
-      <c r="M27">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1934,11 +1857,8 @@
       <c r="L28">
         <v>5.46</v>
       </c>
-      <c r="M28">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1975,11 +1895,8 @@
       <c r="L29">
         <v>4.63</v>
       </c>
-      <c r="M29">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2016,11 +1933,8 @@
       <c r="L30">
         <v>3.75</v>
       </c>
-      <c r="M30">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2057,11 +1971,8 @@
       <c r="L31">
         <v>3.74</v>
       </c>
-      <c r="M31">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2098,11 +2009,8 @@
       <c r="L32">
         <v>4.01</v>
       </c>
-      <c r="M32">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2139,11 +2047,8 @@
       <c r="L33">
         <v>6.48</v>
       </c>
-      <c r="M33">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2180,11 +2085,8 @@
       <c r="L34">
         <v>3.46</v>
       </c>
-      <c r="M34">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2222,7 +2124,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2259,11 +2161,8 @@
       <c r="L36">
         <v>5.27</v>
       </c>
-      <c r="M36">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2300,11 +2199,8 @@
       <c r="L37">
         <v>3.95</v>
       </c>
-      <c r="M37">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2341,11 +2237,8 @@
       <c r="L38">
         <v>3.59</v>
       </c>
-      <c r="M38">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2382,11 +2275,8 @@
       <c r="L39">
         <v>4.2300000000000004</v>
       </c>
-      <c r="M39">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2415,7 +2305,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -2452,11 +2342,8 @@
       <c r="L41">
         <v>6.52</v>
       </c>
-      <c r="M41">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -2493,11 +2380,8 @@
       <c r="L42">
         <v>4.63</v>
       </c>
-      <c r="M42">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2534,11 +2418,8 @@
       <c r="L43">
         <v>5.34</v>
       </c>
-      <c r="M43">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -2575,11 +2456,8 @@
       <c r="L44">
         <v>5.6</v>
       </c>
-      <c r="M44">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2616,11 +2494,8 @@
       <c r="L45">
         <v>5.65</v>
       </c>
-      <c r="M45">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -2657,11 +2532,8 @@
       <c r="L46">
         <v>6</v>
       </c>
-      <c r="M46">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2698,11 +2570,8 @@
       <c r="L47">
         <v>5.53</v>
       </c>
-      <c r="M47">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -2739,11 +2608,8 @@
       <c r="L48">
         <v>5.29</v>
       </c>
-      <c r="M48">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -2780,11 +2646,8 @@
       <c r="L49">
         <v>4.7</v>
       </c>
-      <c r="M49">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -2820,9 +2683,6 @@
       </c>
       <c r="L50">
         <v>4.57</v>
-      </c>
-      <c r="M50">
-        <v>3.52</v>
       </c>
     </row>
   </sheetData>
